--- a/Result Ideas.xlsx
+++ b/Result Ideas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac-my.sharepoint.com/personal/u1942937_live_warwick_ac_uk/Documents/Uni/Year 3/Dark Matter Project/analysis/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{19CEFBA1-FDEB-4383-BC8A-4E16193F9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1E0CB20-E0C3-488B-BBA7-49E87650E28F}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{19CEFBA1-FDEB-4383-BC8A-4E16193F9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2689B70-0635-466B-98EA-826BE227DDC2}"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="-310" windowWidth="28800" windowHeight="15490" xr2:uid="{61FC4EF8-B67A-4475-9948-04DC846A2E1C}"/>
+    <workbookView xWindow="9600" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{61FC4EF8-B67A-4475-9948-04DC846A2E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Shielding</t>
   </si>
@@ -102,6 +104,78 @@
   </si>
   <si>
     <t>Unknown and need more simulations</t>
+  </si>
+  <si>
+    <t>Table comments</t>
+  </si>
+  <si>
+    <t>H-3</t>
+  </si>
+  <si>
+    <t>S-35</t>
+  </si>
+  <si>
+    <t>P-33</t>
+  </si>
+  <si>
+    <t>Be-8</t>
+  </si>
+  <si>
+    <t>H-4</t>
+  </si>
+  <si>
+    <t>Li-8</t>
+  </si>
+  <si>
+    <t>Mg-28</t>
+  </si>
+  <si>
+    <t>P-38</t>
+  </si>
+  <si>
+    <t>F-22</t>
+  </si>
+  <si>
+    <t>Li-9</t>
+  </si>
+  <si>
+    <t>N-17</t>
+  </si>
+  <si>
+    <t>bdecay in range</t>
+  </si>
+  <si>
+    <t>Neutron decay but instantanious</t>
+  </si>
+  <si>
+    <t>beta neutron 50% percentage</t>
+  </si>
+  <si>
+    <t>beta neutron small percentage 12.5%</t>
+  </si>
+  <si>
+    <t>beta neutron small percentage 11%</t>
+  </si>
+  <si>
+    <t>beta neutron 95%</t>
+  </si>
+  <si>
+    <t>bdecay in range prompt long half life to survive</t>
+  </si>
+  <si>
+    <t>bdecay in range both prompt and delayed with long enough half life</t>
+  </si>
+  <si>
+    <t>Alpha decay 91.84 keV energy</t>
+  </si>
+  <si>
+    <t>Alpha decay through Be-8 to He-4</t>
+  </si>
+  <si>
+    <t>($1-(27.7\% * 57.2\%)$)</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -243,7 +317,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -261,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1023,17 +1100,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ED7D35-EB81-4220-A6D2-10A31E7BF4AE}">
-  <dimension ref="A1:B152"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A18" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="70.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.7265625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
+    <col min="3" max="4" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.5">
@@ -1099,7 +1178,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="81" spans="1:5">
+      <c r="D81" s="2">
+        <f>1-(0.354*0.563)</f>
+        <v>0.80069800000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <f>D81-D82</f>
+        <v>0.80069800000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="D87" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="7" t="s">
         <v>12</v>
       </c>
@@ -1107,7 +1206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:5">
       <c r="A96" s="1" t="s">
         <v>15</v>
       </c>
@@ -1115,9 +1214,51 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:1">
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2">
+        <v>463558.669424336</v>
+      </c>
+      <c r="E98" s="2">
+        <f>D98*0.563</f>
+        <v>260983.53088590113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="C99" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" s="2">
+        <v>1311285.3154084701</v>
+      </c>
+      <c r="E99" s="2">
+        <f>D99*(1-D81)</f>
+        <v>261341.78593153888</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="D107" s="2">
+        <v>392851.15477421501</v>
+      </c>
+      <c r="E107" s="2">
+        <f>AVERAGE(D107:D108)</f>
+        <v>392405.68769389798</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="D108" s="2">
+        <v>391960.22061358101</v>
+      </c>
+      <c r="E108" s="2">
+        <f>(D107-D108)/2</f>
+        <v>445.46708031700109</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1159,6 +1300,102 @@
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="14.5">
+      <c r="A156" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Result Ideas.xlsx
+++ b/Result Ideas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac-my.sharepoint.com/personal/u1942937_live_warwick_ac_uk/Documents/Uni/Year 3/Dark Matter Project/analysis/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{19CEFBA1-FDEB-4383-BC8A-4E16193F9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2689B70-0635-466B-98EA-826BE227DDC2}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{19CEFBA1-FDEB-4383-BC8A-4E16193F9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8270D7E-CC5D-4B45-9802-645FBF007243}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{61FC4EF8-B67A-4475-9948-04DC846A2E1C}"/>
+    <workbookView xWindow="8330" yWindow="-360" windowWidth="28800" windowHeight="15460" xr2:uid="{61FC4EF8-B67A-4475-9948-04DC846A2E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>Shielding</t>
   </si>
@@ -176,13 +176,19 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Erecoil</t>
+  </si>
+  <si>
+    <t>Nrecoil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,8 +249,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +278,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -311,13 +337,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -339,8 +367,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="40% - Accent6" xfId="5" builtinId="51"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,6 +847,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>493331</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>64574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A55C0D4-F776-40DA-83D9-5B38F2396211}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4538869"/>
+          <a:ext cx="5391902" cy="7840169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>323170</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>107723</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4922349</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>166445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0720AAC4-8D8F-4D32-A72E-9F822CB27E69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323170" y="30258884"/>
+          <a:ext cx="9497750" cy="12889124"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1100,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ED7D35-EB81-4220-A6D2-10A31E7BF4AE}">
-  <dimension ref="A1:E167"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1307,95 +1442,106 @@
         <v>23</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="14.5">
+      <c r="A157" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B157" s="8"/>
+    </row>
+    <row r="158" spans="1:2" ht="14.5">
+      <c r="B158" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="14.5">
+      <c r="A159" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B159" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="8" t="s">
+    <row r="160" spans="1:2" ht="14.5">
+      <c r="A160" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B160" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="8" t="s">
+    <row r="161" spans="1:2" ht="14.5">
+      <c r="A161" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B161" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="8" t="s">
+    <row r="162" spans="1:2" ht="14.5">
+      <c r="A162" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B162" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="14.5">
+      <c r="A163" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="14.5">
+      <c r="A164" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14.5">
+      <c r="A165" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="14.5">
+      <c r="A166" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="14.5">
+      <c r="A167" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B167" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="8" t="s">
+    <row r="168" spans="1:2" ht="14.5">
+      <c r="A168" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B168" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="8" t="s">
+    <row r="169" spans="1:2" ht="14.5">
+      <c r="A169" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B169" s="12" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Result Ideas.xlsx
+++ b/Result Ideas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac-my.sharepoint.com/personal/u1942937_live_warwick_ac_uk/Documents/Uni/Year 3/Dark Matter Project/analysis/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{19CEFBA1-FDEB-4383-BC8A-4E16193F9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8270D7E-CC5D-4B45-9802-645FBF007243}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="8_{19CEFBA1-FDEB-4383-BC8A-4E16193F9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD34A75-3CB5-49B8-B7C5-858C822DD355}"/>
   <bookViews>
-    <workbookView xWindow="8330" yWindow="-360" windowWidth="28800" windowHeight="15460" xr2:uid="{61FC4EF8-B67A-4475-9948-04DC846A2E1C}"/>
+    <workbookView xWindow="9600" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{61FC4EF8-B67A-4475-9948-04DC846A2E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Shielding</t>
   </si>
@@ -182,6 +182,24 @@
   </si>
   <si>
     <t>Nrecoil</t>
+  </si>
+  <si>
+    <t>Muon rate</t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>m^2s^-1</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -345,7 +363,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -384,6 +402,8 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
@@ -1235,22 +1255,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ED7D35-EB81-4220-A6D2-10A31E7BF4AE}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="70.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="76.7265625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" style="2"/>
-    <col min="5" max="5" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="2"/>
+    <col min="4" max="4" width="13.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.5">
+    <row r="1" spans="1:6" ht="14.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1258,7 +1279,75 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="3" spans="1:6">
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2">
+        <f>100*PI()</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="E4" s="2">
+        <f>100*PI()</f>
+        <v>314.15926535897933</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="16">
+        <v>3.4769999999999999E-4</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2">
+        <f>365*24*3600</f>
+        <v>31536000</v>
+      </c>
+      <c r="E6" s="2">
+        <f>365*24*3600</f>
+        <v>31536000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="16">
+        <f>D5*D4*D6</f>
+        <v>3444777.4561638404</v>
+      </c>
+      <c r="E7" s="17">
+        <f>E5*E4*E6</f>
+        <v>1981.4653184721542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="D9" s="16"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="3" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>7</v>
       </c>

--- a/Result Ideas.xlsx
+++ b/Result Ideas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewarwickac-my.sharepoint.com/personal/u1942937_live_warwick_ac_uk/Documents/Uni/Year 3/Dark Matter Project/analysis/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{19CEFBA1-FDEB-4383-BC8A-4E16193F9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FD34A75-3CB5-49B8-B7C5-858C822DD355}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{19CEFBA1-FDEB-4383-BC8A-4E16193F9DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10DF55F9-FAD1-477D-8DFD-F4736636C5F5}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="5540" windowWidth="28800" windowHeight="15460" xr2:uid="{61FC4EF8-B67A-4475-9948-04DC846A2E1C}"/>
+    <workbookView xWindow="5580" yWindow="4510" windowWidth="28800" windowHeight="15460" xr2:uid="{61FC4EF8-B67A-4475-9948-04DC846A2E1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Shielding</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Li-8</t>
   </si>
   <si>
-    <t>Mg-28</t>
-  </si>
-  <si>
     <t>P-38</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t>N-17</t>
-  </si>
-  <si>
-    <t>bdecay in range</t>
   </si>
   <si>
     <t>Neutron decay but instantanious</t>
@@ -869,16 +863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>139226</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5028973</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37172</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>493331</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>64574</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107794</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>138279</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -901,7 +895,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4538869"/>
+          <a:off x="9927544" y="4964092"/>
           <a:ext cx="5391902" cy="7840169"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1257,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2ED7D35-EB81-4220-A6D2-10A31E7BF4AE}">
   <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1281,12 +1275,12 @@
     </row>
     <row r="3" spans="1:6">
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="C4" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
         <f>100*PI()</f>
@@ -1297,12 +1291,12 @@
         <v>314.15926535897933</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="16">
         <v>3.4769999999999999E-4</v>
@@ -1311,12 +1305,12 @@
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="C6" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2">
         <f>365*24*3600</f>
@@ -1419,7 +1413,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="D87" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1457,7 +1451,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="C99" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D99" s="2">
         <v>1311285.3154084701</v>
@@ -1536,13 +1530,13 @@
     </row>
     <row r="157" spans="1:2" ht="14.5">
       <c r="A157" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B157" s="8"/>
     </row>
     <row r="158" spans="1:2" ht="14.5">
       <c r="B158" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="14.5">
@@ -1550,7 +1544,7 @@
         <v>24</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="14.5">
@@ -1558,7 +1552,7 @@
         <v>25</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="14.5">
@@ -1566,47 +1560,43 @@
         <v>26</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="14.5">
-      <c r="A162" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B162" s="11" t="s">
-        <v>35</v>
-      </c>
+      <c r="A162" s="9"/>
+      <c r="B162" s="11"/>
     </row>
     <row r="163" spans="1:2" ht="14.5">
       <c r="A163" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="14.5">
       <c r="A164" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="14.5">
       <c r="A165" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="14.5">
       <c r="A166" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="14.5">
@@ -1614,7 +1604,7 @@
         <v>27</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="14.5">
@@ -1622,7 +1612,7 @@
         <v>28</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="14.5">
@@ -1630,7 +1620,7 @@
         <v>29</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
